--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_MCPS_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_MCPS_No_lineal_Estacionario_SETAR.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.275733714213569</v>
+        <v>1.617956591027984</v>
       </c>
       <c r="D2">
-        <v>0.2022261305466517</v>
+        <v>0.1199210709990388</v>
       </c>
       <c r="E2">
         <v>0.6950571286200248</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.6593185966620154</v>
+        <v>-0.6417660443241739</v>
       </c>
       <c r="D3">
-        <v>0.5097816189264099</v>
+        <v>0.5276558867351473</v>
       </c>
       <c r="E3">
         <v>0.6950571286200248</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.7531794346859196</v>
+        <v>-0.9541325564856536</v>
       </c>
       <c r="D4">
-        <v>0.4514476896638564</v>
+        <v>0.3503835622981812</v>
       </c>
       <c r="E4">
         <v>0.6950571286200248</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>2.332043365199978</v>
+        <v>2.443265591936573</v>
       </c>
       <c r="D5">
-        <v>0.0198161207556462</v>
+        <v>0.02304143812380133</v>
       </c>
       <c r="E5">
         <v>0.6950571286200248</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-2.046708299781336</v>
+        <v>-1.822466731956537</v>
       </c>
       <c r="D6">
-        <v>0.04084214782184592</v>
+        <v>0.08200618717974106</v>
       </c>
       <c r="E6">
         <v>0.6647012736496668</v>
@@ -557,7 +557,7 @@
         <v>0.7113389761406008</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.91428608344396</v>
+        <v>-1.572869454355968</v>
       </c>
       <c r="D7">
-        <v>0.05575342847508336</v>
+        <v>0.1300212787827604</v>
       </c>
       <c r="E7">
         <v>0.6647012736496668</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.028779449256039</v>
+        <v>1.048850241168568</v>
       </c>
       <c r="D8">
-        <v>0.3037315049752396</v>
+        <v>0.3056333807876739</v>
       </c>
       <c r="E8">
         <v>0.6647012736496668</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.139709969143828</v>
+        <v>-0.1264826889139115</v>
       </c>
       <c r="D9">
-        <v>0.888905905828707</v>
+        <v>0.900498713736553</v>
       </c>
       <c r="E9">
         <v>0.7113389761406008</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>3.2136444505229</v>
+        <v>2.655556625351534</v>
       </c>
       <c r="D10">
-        <v>0.001335492664621851</v>
+        <v>0.01444622216141034</v>
       </c>
       <c r="E10">
         <v>0.7113389761406008</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>2.871094308433448</v>
+        <v>2.78081490490961</v>
       </c>
       <c r="D11">
-        <v>0.004141828404134351</v>
+        <v>0.01089971384332156</v>
       </c>
       <c r="E11">
         <v>0.7146733096452357</v>
